--- a/organization/stations.xlsx
+++ b/organization/stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliseev-ae\Desktop\Projects\electrocars\organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B4E3D-0360-49C4-93ED-6A15752A4602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C21CD-D614-4F8A-8687-9D87AD667C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CA10382D-5BC2-4800-9EFC-AA49105DAA17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -33,12 +33,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -60,15 +54,6 @@
     <t>г. Выборг, Ленинградское ш., д. 46</t>
   </si>
   <si>
-    <t>60.700894</t>
-  </si>
-  <si>
-    <t>28.786423</t>
-  </si>
-  <si>
-    <t>Россети Ленэнерго</t>
-  </si>
-  <si>
     <t>type2</t>
   </si>
   <si>
@@ -87,53 +72,245 @@
     <t>г. Санкт Петербург, ул. Академика Вернова, д. 1</t>
   </si>
   <si>
-    <t>60.147817</t>
-  </si>
-  <si>
-    <t>30.213513</t>
-  </si>
-  <si>
     <t>г. Сертолово, ул. Ветеранов, д. 9</t>
   </si>
   <si>
-    <t>60.058930</t>
-  </si>
-  <si>
-    <t>29.986682</t>
-  </si>
-  <si>
-    <t>60.300556</t>
-  </si>
-  <si>
-    <t>29.803063</t>
-  </si>
-  <si>
-    <t>Ленинградская обл., пос. Кондратьево, Покровская ул., 4</t>
-  </si>
-  <si>
-    <t>60.621442</t>
-  </si>
-  <si>
-    <t>28.163002</t>
-  </si>
-  <si>
     <t>Ленинградская обл., пос. Огоньки, А-181</t>
   </si>
   <si>
     <t>г. Санкт-Петербург, ул. Савушкина, д. 141</t>
   </si>
   <si>
-    <t>59.990762</t>
-  </si>
-  <si>
-    <t>30.205845</t>
+    <t>г. Санкт-Петербург, набережная Мартынова, 74, к. 2</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Савушкина, д. 112, к. 2</t>
+  </si>
+  <si>
+    <t>Ленинградская обл., пос. Кондратьево, ул. Покровская , д. 4</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Байконурская, д. 14</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Обручаевых, д.5, к2</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Гражданский проспект, 41, к. 2Б</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Пискарёвский проспект, 59</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Маршла Блюхера, д. 41</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Большой проспект Васильевского острова, 68</t>
+  </si>
+  <si>
+    <t>60.621442 28.163002</t>
+  </si>
+  <si>
+    <t>60.700894 28.786423</t>
+  </si>
+  <si>
+    <t>60.300556 29.803063</t>
+  </si>
+  <si>
+    <t>60.058930 29.986682</t>
+  </si>
+  <si>
+    <t>60.147817 30.213513</t>
+  </si>
+  <si>
+    <t>59.990762 30.205845</t>
+  </si>
+  <si>
+    <t>59.983878 30.225695</t>
+  </si>
+  <si>
+    <t>59.974523 30.248809</t>
+  </si>
+  <si>
+    <t>59.974524 30.248810</t>
+  </si>
+  <si>
+    <t>59.974525 30.248811</t>
+  </si>
+  <si>
+    <t>60.002559 30.271622</t>
+  </si>
+  <si>
+    <t>60.011621 30.380475</t>
+  </si>
+  <si>
+    <t>60.012499 30.398510</t>
+  </si>
+  <si>
+    <t>59.989670 30.439386</t>
+  </si>
+  <si>
+    <t>59.975279 30.407927</t>
+  </si>
+  <si>
+    <t>59.931833 30.259365</t>
+  </si>
+  <si>
+    <t>59.931834 30.259366</t>
+  </si>
+  <si>
+    <t>59.931835 30.259367</t>
+  </si>
+  <si>
+    <t>coord</t>
+  </si>
+  <si>
+    <t>59.907238, 30.306848</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, набережная Обводного канала, 118С</t>
+  </si>
+  <si>
+    <t>59.908276, 30.327791</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Масляный переулок, 6Ж</t>
+  </si>
+  <si>
+    <t>59.912240, 30.333175</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, набережная Обводного канала, 72</t>
+  </si>
+  <si>
+    <t>59.913497, 30.375328</t>
+  </si>
+  <si>
+    <t>г.Санкт-Петербург, набережная Обводного канала, 24</t>
+  </si>
+  <si>
+    <t>59.898250, 30.423262</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербрг, ул. Ольминского, 12А</t>
+  </si>
+  <si>
+    <t>59.926845, 30.362140</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Лиговский проспект, 30</t>
+  </si>
+  <si>
+    <t>59.946137, 30.380307</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Тверская , д. 1</t>
+  </si>
+  <si>
+    <t>59.928445, 30.453163</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Ворошилова, 17к1</t>
+  </si>
+  <si>
+    <t>59.934605, 30.500202</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Хасанская, д.17, к. 1</t>
+  </si>
+  <si>
+    <t>59.953637, 30.476361</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, проспект Ударников, 38, к. 1</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Таллинское шоссе, 159, к. 2</t>
+  </si>
+  <si>
+    <t>59.806590, 30.160325</t>
+  </si>
+  <si>
+    <t>Россети</t>
+  </si>
+  <si>
+    <t>59.858921, 29.922797</t>
+  </si>
+  <si>
+    <t>г. Петергоф, ул. Володи Дубинина, д. 9</t>
+  </si>
+  <si>
+    <t>59.847551, 30.297171</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Костюшко, 1к1</t>
+  </si>
+  <si>
+    <t>59.849717, 30.303566</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Ленинский проспект, 153</t>
+  </si>
+  <si>
+    <t>59.821688, 30.323940</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Пулковское шоссе, д. 36, к. 3</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Малая Карпатская, д. 15</t>
+  </si>
+  <si>
+    <t>59.836644, 30.427196</t>
+  </si>
+  <si>
+    <t>г. Колпино, ул. Пролетарская, д. 36, к. 2</t>
+  </si>
+  <si>
+    <t>59.740180, 30.582659</t>
+  </si>
+  <si>
+    <t>59.703713, 30.551123</t>
+  </si>
+  <si>
+    <t>Энергоцентр</t>
+  </si>
+  <si>
+    <t>Ленэнерго</t>
+  </si>
+  <si>
+    <t>saej1772</t>
+  </si>
+  <si>
+    <t>59.700905, 30.552873</t>
+  </si>
+  <si>
+    <t>58.760838, 31.495458</t>
+  </si>
+  <si>
+    <t>Ленинградская обл., Тельмановское сельское поселение, М-11</t>
+  </si>
+  <si>
+    <t>58.757776, 31.500668</t>
+  </si>
+  <si>
+    <t>Новгородская обл., Трубичинское сельское поселение, М-11, 542-й километр</t>
+  </si>
+  <si>
+    <t>58.346426, 33.287889</t>
+  </si>
+  <si>
+    <t>58.347537, 33.285483</t>
+  </si>
+  <si>
+    <t>городское поселение Окуловка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +318,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,8 +347,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,22 +664,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA94D561-2378-46A2-8F93-3F8E845A9C72}">
-  <dimension ref="A1:J403"/>
+  <dimension ref="A1:O400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,2415 +686,4237 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
+      <c r="E4" t="s">
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
+      <c r="E7" t="s">
+        <v>83</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="G10">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
+      <c r="E11" t="s">
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
         <v>18</v>
       </c>
-      <c r="H11">
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
+      <c r="D13">
         <v>37</v>
       </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="G13">
         <v>43</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
         <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>50</v>
       </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="E15">
+      <c r="D16">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15">
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
         <v>50</v>
       </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>43</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>50</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67">
+        <v>43</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>50</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68">
+        <v>43</v>
+      </c>
+      <c r="E68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>50</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>48</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72">
+        <v>34</v>
+      </c>
+      <c r="E72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>43</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>50</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>60</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79">
+        <v>60</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82">
+        <v>60</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83">
+        <v>60</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86">
+        <v>60</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87">
+        <v>60</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>60</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>53</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>82</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91">
+        <v>60</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>54</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94">
+        <v>60</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>54</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>82</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95">
+        <v>60</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96">
+        <v>7</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>55</v>
+      </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>55</v>
+      </c>
+      <c r="B98" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>82</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>55</v>
+      </c>
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99">
+        <v>60</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403">
         <v>402</v>
       </c>
     </row>

--- a/organization/stations.xlsx
+++ b/organization/stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliseev-ae\Desktop\Projects\electrocars\organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C21CD-D614-4F8A-8687-9D87AD667C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD052E9-5BFB-46B5-8512-CE81E80915F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CA10382D-5BC2-4800-9EFC-AA49105DAA17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="3300" xr2:uid="{CA10382D-5BC2-4800-9EFC-AA49105DAA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -165,114 +165,60 @@
     <t>coord</t>
   </si>
   <si>
-    <t>59.907238, 30.306848</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, набережная Обводного канала, 118С</t>
   </si>
   <si>
-    <t>59.908276, 30.327791</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, Масляный переулок, 6Ж</t>
   </si>
   <si>
-    <t>59.912240, 30.333175</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, набережная Обводного канала, 72</t>
   </si>
   <si>
-    <t>59.913497, 30.375328</t>
-  </si>
-  <si>
     <t>г.Санкт-Петербург, набережная Обводного канала, 24</t>
   </si>
   <si>
-    <t>59.898250, 30.423262</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербрг, ул. Ольминского, 12А</t>
   </si>
   <si>
-    <t>59.926845, 30.362140</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, Лиговский проспект, 30</t>
   </si>
   <si>
-    <t>59.946137, 30.380307</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, ул. Тверская , д. 1</t>
   </si>
   <si>
-    <t>59.928445, 30.453163</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, ул. Ворошилова, 17к1</t>
   </si>
   <si>
-    <t>59.934605, 30.500202</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, ул. Хасанская, д.17, к. 1</t>
   </si>
   <si>
-    <t>59.953637, 30.476361</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, проспект Ударников, 38, к. 1</t>
   </si>
   <si>
     <t>г. Санкт-Петербург, Таллинское шоссе, 159, к. 2</t>
   </si>
   <si>
-    <t>59.806590, 30.160325</t>
-  </si>
-  <si>
     <t>Россети</t>
   </si>
   <si>
-    <t>59.858921, 29.922797</t>
-  </si>
-  <si>
     <t>г. Петергоф, ул. Володи Дубинина, д. 9</t>
   </si>
   <si>
-    <t>59.847551, 30.297171</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, ул. Костюшко, 1к1</t>
   </si>
   <si>
-    <t>59.849717, 30.303566</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, Ленинский проспект, 153</t>
   </si>
   <si>
-    <t>59.821688, 30.323940</t>
-  </si>
-  <si>
     <t>г. Санкт-Петербург, Пулковское шоссе, д. 36, к. 3</t>
   </si>
   <si>
     <t>г. Санкт-Петербург, ул. Малая Карпатская, д. 15</t>
   </si>
   <si>
-    <t>59.836644, 30.427196</t>
-  </si>
-  <si>
     <t>г. Колпино, ул. Пролетарская, д. 36, к. 2</t>
   </si>
   <si>
-    <t>59.740180, 30.582659</t>
-  </si>
-  <si>
-    <t>59.703713, 30.551123</t>
-  </si>
-  <si>
     <t>Энергоцентр</t>
   </si>
   <si>
@@ -282,28 +228,223 @@
     <t>saej1772</t>
   </si>
   <si>
-    <t>59.700905, 30.552873</t>
-  </si>
-  <si>
-    <t>58.760838, 31.495458</t>
-  </si>
-  <si>
-    <t>Ленинградская обл., Тельмановское сельское поселение, М-11</t>
-  </si>
-  <si>
-    <t>58.757776, 31.500668</t>
-  </si>
-  <si>
-    <t>Новгородская обл., Трубичинское сельское поселение, М-11, 542-й километр</t>
-  </si>
-  <si>
-    <t>58.346426, 33.287889</t>
-  </si>
-  <si>
-    <t>58.347537, 33.285483</t>
-  </si>
-  <si>
-    <t>городское поселение Окуловка</t>
+    <t>г. Наро-Фоминск</t>
+  </si>
+  <si>
+    <t>Московская обл., деревня Артёмки, М-1, 121-й км</t>
+  </si>
+  <si>
+    <t>Ленинградская обл., Тельмановское сельское поселение, М-11, 667-й км</t>
+  </si>
+  <si>
+    <t>Новгородская обл., Трубичинское сельское поселение, М-11, 542-й км</t>
+  </si>
+  <si>
+    <t>Новгородская обл., городское поселение Окуловка, М-11, 424-й км</t>
+  </si>
+  <si>
+    <t>Тверская обл., Вышневолоцкий городской округ, М-11,328-й км</t>
+  </si>
+  <si>
+    <t>Тверская обл., село Поддубки, М-11, 192-й км</t>
+  </si>
+  <si>
+    <t>gtbdc</t>
+  </si>
+  <si>
+    <t>Московская обл., сельское поселение Борисовское, М-1, 121-й км</t>
+  </si>
+  <si>
+    <t>г. Руза, ул. Федеративная, д. 43</t>
+  </si>
+  <si>
+    <t>Московская обл., рабочий посёлок Шаховская, ул. Рижская, д. 23</t>
+  </si>
+  <si>
+    <t>г. Волокаламск, Рижское шоссе, 4Б</t>
+  </si>
+  <si>
+    <t>Московская обл., осёлок Новолотошино, Тверское шоссе, 3</t>
+  </si>
+  <si>
+    <t>Московская обл., городской округ Истра</t>
+  </si>
+  <si>
+    <t>Московская обл., городской округ Клин, М-11, 105-й км</t>
+  </si>
+  <si>
+    <t>г. Солченогорск</t>
+  </si>
+  <si>
+    <t>г. Дубна, район Российского Центра Программирования</t>
+  </si>
+  <si>
+    <t>г. Талдом</t>
+  </si>
+  <si>
+    <t>Московская обл., деревня Спиридово</t>
+  </si>
+  <si>
+    <t>г. Дедовск</t>
+  </si>
+  <si>
+    <t>Московская обл., городской округ Солнечногорск</t>
+  </si>
+  <si>
+    <t>г. Красногорск</t>
+  </si>
+  <si>
+    <t>г. Москва, МКАД, 66-й километр, 2А</t>
+  </si>
+  <si>
+    <t>г. Химки, Ленинградское шоссе, 30</t>
+  </si>
+  <si>
+    <t>г. Химки, Ленинградское шоссе, 36</t>
+  </si>
+  <si>
+    <t>Московская обл., городской округ Химки</t>
+  </si>
+  <si>
+    <t>59.907238 30.306848</t>
+  </si>
+  <si>
+    <t>59.908276 30.327791</t>
+  </si>
+  <si>
+    <t>59.912240 30.333175</t>
+  </si>
+  <si>
+    <t>59.913497 30.375328</t>
+  </si>
+  <si>
+    <t>59.898250 30.423262</t>
+  </si>
+  <si>
+    <t>59.926845 30.362140</t>
+  </si>
+  <si>
+    <t>59.946137 30.380307</t>
+  </si>
+  <si>
+    <t>59.928445 30.453163</t>
+  </si>
+  <si>
+    <t>59.934605 30.500202</t>
+  </si>
+  <si>
+    <t>59.953637 30.476361</t>
+  </si>
+  <si>
+    <t>59.806590 30.160325</t>
+  </si>
+  <si>
+    <t>59.858921 29.922797</t>
+  </si>
+  <si>
+    <t>59.847551 30.297171</t>
+  </si>
+  <si>
+    <t>59.849717 30.303566</t>
+  </si>
+  <si>
+    <t>59.821688 30.323940</t>
+  </si>
+  <si>
+    <t>59.836644 30.427196</t>
+  </si>
+  <si>
+    <t>59.740180 30.582659</t>
+  </si>
+  <si>
+    <t>59.703713 30.551123</t>
+  </si>
+  <si>
+    <t>59.700905 30.552873</t>
+  </si>
+  <si>
+    <t>58.760838 31.495458</t>
+  </si>
+  <si>
+    <t>58.757776 31.500668</t>
+  </si>
+  <si>
+    <t>58.346426 33.287889</t>
+  </si>
+  <si>
+    <t>58.347537 33.285483</t>
+  </si>
+  <si>
+    <t>57.679715 34.222651</t>
+  </si>
+  <si>
+    <t>57.679798 34.224396</t>
+  </si>
+  <si>
+    <t>56.915129 35.581495</t>
+  </si>
+  <si>
+    <t>55.360058 36.749767</t>
+  </si>
+  <si>
+    <t>55.465385 35.830321</t>
+  </si>
+  <si>
+    <t>55.463881 35.828770</t>
+  </si>
+  <si>
+    <t>55.709459 36.204792</t>
+  </si>
+  <si>
+    <t>56.037322 35.485816</t>
+  </si>
+  <si>
+    <t>56.023978 35.956857</t>
+  </si>
+  <si>
+    <t>56.250412 35.647028</t>
+  </si>
+  <si>
+    <t>55.853989 36.781560</t>
+  </si>
+  <si>
+    <t>56.411982 36.556707</t>
+  </si>
+  <si>
+    <t>56.412236 36.557550</t>
+  </si>
+  <si>
+    <t>56.173118 37.002557</t>
+  </si>
+  <si>
+    <t>56.755226 37.166474</t>
+  </si>
+  <si>
+    <t>56.734684 37.549500</t>
+  </si>
+  <si>
+    <t>56.367669 37.464992</t>
+  </si>
+  <si>
+    <t>55.861853 37.161687</t>
+  </si>
+  <si>
+    <t>55.940770 37.174454</t>
+  </si>
+  <si>
+    <t>55.818058 37.360351</t>
+  </si>
+  <si>
+    <t>55.812054 37.387110</t>
+  </si>
+  <si>
+    <t>55.903910 37.417687</t>
+  </si>
+  <si>
+    <t>55.908535 37.407806</t>
+  </si>
+  <si>
+    <t>55.947327 37.443635</t>
   </si>
 </sst>
 </file>
@@ -666,14 +807,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA94D561-2378-46A2-8F93-3F8E845A9C72}">
   <dimension ref="A1:O400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
@@ -735,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -764,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -793,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -822,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -851,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -880,7 +1021,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -923,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -952,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -981,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1010,7 +1151,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1039,7 +1180,7 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1068,7 +1209,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1097,7 +1238,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1126,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1155,7 +1296,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1184,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1213,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1242,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1313,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1342,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1372,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1401,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1430,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1459,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1488,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1517,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1546,7 +1687,7 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1566,10 +1707,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1580,16 +1721,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D35">
         <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1609,16 +1750,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1638,16 +1779,16 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1667,16 +1808,16 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1696,16 +1837,16 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1725,16 +1866,16 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1754,16 +1895,16 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1783,16 +1924,16 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D42">
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1812,10 +1953,10 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1826,16 +1967,16 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D44">
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1855,16 +1996,16 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D45">
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1884,16 +2025,16 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D46">
         <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -1913,16 +2054,16 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1942,16 +2083,16 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -1971,16 +2112,16 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2000,16 +2141,16 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -2029,16 +2170,16 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D51">
         <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2058,16 +2199,16 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -2087,16 +2228,16 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D53">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -2116,16 +2257,16 @@
         <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D54">
         <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2145,16 +2286,16 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D55">
         <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -2174,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2188,16 +2329,16 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D57">
         <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -2217,16 +2358,16 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D58">
         <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -2246,16 +2387,16 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D59">
         <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -2275,16 +2416,16 @@
         <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D60">
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -2304,16 +2445,16 @@
         <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D61">
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -2333,16 +2474,16 @@
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D62">
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2362,16 +2503,16 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D63">
         <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2391,16 +2532,16 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D64">
         <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -2420,16 +2561,16 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -2449,16 +2590,16 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D66">
         <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2478,16 +2619,16 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D67">
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
@@ -2507,16 +2648,16 @@
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D68">
         <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -2536,10 +2677,10 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2550,16 +2691,16 @@
         <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D70">
         <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2579,16 +2720,16 @@
         <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D71">
         <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -2608,16 +2749,16 @@
         <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D72">
         <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -2637,16 +2778,16 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D73">
         <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2666,16 +2807,16 @@
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D74">
         <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -2695,16 +2836,16 @@
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D75">
         <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -2724,19 +2865,19 @@
         <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D76">
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G76">
         <v>7</v>
@@ -2753,16 +2894,16 @@
         <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D77">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2782,16 +2923,16 @@
         <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D78">
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -2811,16 +2952,16 @@
         <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D79">
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -2840,19 +2981,19 @@
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D80">
         <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G80">
         <v>7</v>
@@ -2869,16 +3010,16 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D81">
         <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2898,16 +3039,16 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D82">
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -2927,16 +3068,16 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D83">
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -2956,19 +3097,19 @@
         <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D84">
         <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G84">
         <v>7</v>
@@ -2985,16 +3126,16 @@
         <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D85">
         <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -3014,16 +3155,16 @@
         <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D86">
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -3043,16 +3184,16 @@
         <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D87">
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
@@ -3072,19 +3213,19 @@
         <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D88">
         <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G88">
         <v>7</v>
@@ -3101,16 +3242,16 @@
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D89">
         <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -3130,16 +3271,16 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D90">
         <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -3159,16 +3300,16 @@
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D91">
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
@@ -3188,19 +3329,19 @@
         <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D92">
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G92">
         <v>7</v>
@@ -3217,16 +3358,16 @@
         <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D93">
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -3246,16 +3387,16 @@
         <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D94">
         <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -3275,16 +3416,16 @@
         <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D95">
         <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
@@ -3304,19 +3445,19 @@
         <v>55</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D96">
         <v>25</v>
       </c>
       <c r="E96" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G96">
         <v>7</v>
@@ -3333,16 +3474,16 @@
         <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D97">
         <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -3362,16 +3503,16 @@
         <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C98" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D98">
         <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -3391,16 +3532,16 @@
         <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D99">
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
@@ -3417,385 +3558,2131 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>102</v>
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>103</v>
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>104</v>
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102">
+        <v>60</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>60</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>106</v>
+        <v>57</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104">
+        <v>7</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>108</v>
+        <v>57</v>
+      </c>
+      <c r="B106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106">
+        <v>60</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <v>60</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>110</v>
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108">
+        <v>25</v>
+      </c>
+      <c r="E108" t="s">
+        <v>64</v>
+      </c>
+      <c r="F108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G108">
+        <v>7</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>111</v>
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>64</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>22</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>112</v>
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110">
+        <v>60</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>113</v>
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111">
+        <v>60</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113">
+        <v>120</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>64</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>60</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F115" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115">
+        <v>120</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116">
+        <v>25</v>
+      </c>
+      <c r="E116" t="s">
+        <v>64</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116">
+        <v>120</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>75</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>64</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117">
+        <v>60</v>
+      </c>
+      <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118">
+        <v>25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118">
         <v>120</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119">
+        <v>25</v>
+      </c>
+      <c r="E119" t="s">
+        <v>64</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119">
+        <v>120</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>25</v>
+      </c>
+      <c r="E120" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120">
+        <v>60</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>25</v>
+      </c>
+      <c r="E121" t="s">
+        <v>64</v>
+      </c>
+      <c r="F121" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121">
+        <v>120</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>63</v>
+      </c>
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122">
+        <v>120</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" t="s">
+        <v>123</v>
+      </c>
+      <c r="D123">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123">
+        <v>60</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" t="s">
+        <v>74</v>
+      </c>
+      <c r="G124">
+        <v>120</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="D125">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125">
+        <v>120</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>64</v>
+      </c>
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126">
+        <v>60</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>64</v>
+      </c>
+      <c r="B127" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127">
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" t="s">
+        <v>74</v>
+      </c>
+      <c r="G127">
+        <v>120</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>65</v>
+      </c>
+      <c r="B128" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="D128">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>64</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128">
+        <v>120</v>
+      </c>
+      <c r="H128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>65</v>
+      </c>
+      <c r="B129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129">
+        <v>25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>64</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129">
+        <v>60</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>65</v>
+      </c>
+      <c r="B130" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130" t="s">
+        <v>74</v>
+      </c>
+      <c r="G130">
+        <v>120</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>66</v>
+      </c>
+      <c r="B131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>67</v>
+      </c>
+      <c r="B132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="D132">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F132" t="s">
+        <v>66</v>
+      </c>
+      <c r="G132">
+        <v>7</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>67</v>
+      </c>
+      <c r="B133" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>67</v>
+      </c>
+      <c r="B134" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>64</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134">
+        <v>60</v>
+      </c>
+      <c r="H134" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>67</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135">
+        <v>60</v>
+      </c>
+      <c r="H135" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>68</v>
+      </c>
+      <c r="B136" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="D136">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" t="s">
+        <v>66</v>
+      </c>
+      <c r="G136">
+        <v>7</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>68</v>
+      </c>
+      <c r="B137" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" t="s">
+        <v>128</v>
+      </c>
+      <c r="D137">
+        <v>25</v>
+      </c>
+      <c r="E137" t="s">
+        <v>64</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>68</v>
+      </c>
+      <c r="B138" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>64</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138">
+        <v>60</v>
+      </c>
+      <c r="H138" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>68</v>
+      </c>
+      <c r="B139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
+        <v>64</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139">
+        <v>60</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>69</v>
+      </c>
+      <c r="B140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="D140">
+        <v>25</v>
+      </c>
+      <c r="E140" t="s">
+        <v>64</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140">
+        <v>120</v>
+      </c>
+      <c r="H140" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>69</v>
+      </c>
+      <c r="B141" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141">
+        <v>25</v>
+      </c>
+      <c r="E141" t="s">
+        <v>64</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141">
+        <v>60</v>
+      </c>
+      <c r="H141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>69</v>
+      </c>
+      <c r="B142" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" t="s">
+        <v>129</v>
+      </c>
+      <c r="D142">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>64</v>
+      </c>
+      <c r="F142" t="s">
+        <v>74</v>
+      </c>
+      <c r="G142">
+        <v>120</v>
+      </c>
+      <c r="H142" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>70</v>
+      </c>
+      <c r="B143" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="D143">
+        <v>25</v>
+      </c>
+      <c r="E143" t="s">
+        <v>64</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143">
+        <v>120</v>
+      </c>
+      <c r="H143" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>70</v>
+      </c>
+      <c r="B144" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144">
+        <v>25</v>
+      </c>
+      <c r="E144" t="s">
+        <v>64</v>
+      </c>
+      <c r="F144" t="s">
+        <v>74</v>
+      </c>
+      <c r="G144">
+        <v>120</v>
+      </c>
+      <c r="H144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>70</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145">
+        <v>25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>64</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145">
+        <v>90</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>71</v>
+      </c>
+      <c r="B146" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="D146">
+        <v>25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>64</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146">
+        <v>120</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>71</v>
+      </c>
+      <c r="B147" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147">
+        <v>25</v>
+      </c>
+      <c r="E147" t="s">
+        <v>64</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147">
+        <v>60</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>71</v>
+      </c>
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148">
+        <v>25</v>
+      </c>
+      <c r="E148" t="s">
+        <v>64</v>
+      </c>
+      <c r="F148" t="s">
+        <v>74</v>
+      </c>
+      <c r="G148">
+        <v>120</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>72</v>
+      </c>
+      <c r="B149" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="D149">
+        <v>25</v>
+      </c>
+      <c r="E149" t="s">
+        <v>64</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149">
+        <v>120</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>72</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" t="s">
+        <v>132</v>
+      </c>
+      <c r="D150">
+        <v>25</v>
+      </c>
+      <c r="E150" t="s">
+        <v>64</v>
+      </c>
+      <c r="F150" t="s">
+        <v>74</v>
+      </c>
+      <c r="G150">
+        <v>120</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>72</v>
+      </c>
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151">
+        <v>25</v>
+      </c>
+      <c r="E151" t="s">
+        <v>64</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151">
+        <v>90</v>
+      </c>
+      <c r="H151" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>73</v>
+      </c>
+      <c r="B152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="D152">
+        <v>25</v>
+      </c>
+      <c r="E152" t="s">
+        <v>64</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152">
+        <v>120</v>
+      </c>
+      <c r="H152" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>73</v>
+      </c>
+      <c r="B153" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" t="s">
+        <v>133</v>
+      </c>
+      <c r="D153">
+        <v>25</v>
+      </c>
+      <c r="E153" t="s">
+        <v>64</v>
+      </c>
+      <c r="F153" t="s">
+        <v>74</v>
+      </c>
+      <c r="G153">
+        <v>120</v>
+      </c>
+      <c r="H153" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>73</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154">
+        <v>25</v>
+      </c>
+      <c r="E154" t="s">
+        <v>64</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154">
+        <v>90</v>
+      </c>
+      <c r="H154" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>74</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="D155">
+        <v>25</v>
+      </c>
+      <c r="E155" t="s">
+        <v>64</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155">
+        <v>120</v>
+      </c>
+      <c r="H155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>74</v>
+      </c>
+      <c r="B156" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" t="s">
+        <v>134</v>
+      </c>
+      <c r="D156">
+        <v>25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>64</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156">
+        <v>60</v>
+      </c>
+      <c r="H156" t="s">
+        <v>11</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>74</v>
+      </c>
+      <c r="B157" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" t="s">
+        <v>134</v>
+      </c>
+      <c r="D157">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>64</v>
+      </c>
+      <c r="F157" t="s">
+        <v>74</v>
+      </c>
+      <c r="G157">
+        <v>120</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>75</v>
+      </c>
+      <c r="B158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="D158">
+        <v>25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>64</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158">
+        <v>120</v>
+      </c>
+      <c r="H158" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>75</v>
+      </c>
+      <c r="B159" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>64</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159">
+        <v>60</v>
+      </c>
+      <c r="H159" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>75</v>
+      </c>
+      <c r="B160" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" t="s">
+        <v>135</v>
+      </c>
+      <c r="D160">
+        <v>25</v>
+      </c>
+      <c r="E160" t="s">
+        <v>64</v>
+      </c>
+      <c r="F160" t="s">
+        <v>74</v>
+      </c>
+      <c r="G160">
+        <v>120</v>
+      </c>
+      <c r="H160" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>76</v>
+      </c>
+      <c r="B161" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="D161">
+        <v>25</v>
+      </c>
+      <c r="E161" t="s">
+        <v>64</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161">
+        <v>120</v>
+      </c>
+      <c r="H161" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>76</v>
+      </c>
+      <c r="B162" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" t="s">
+        <v>136</v>
+      </c>
+      <c r="D162">
+        <v>25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>64</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162">
+        <v>60</v>
+      </c>
+      <c r="H162" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>76</v>
+      </c>
+      <c r="B163" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" t="s">
+        <v>136</v>
+      </c>
+      <c r="D163">
+        <v>25</v>
+      </c>
+      <c r="E163" t="s">
+        <v>64</v>
+      </c>
+      <c r="F163" t="s">
+        <v>74</v>
+      </c>
+      <c r="G163">
+        <v>120</v>
+      </c>
+      <c r="H163" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>77</v>
+      </c>
+      <c r="B164" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="D164">
+        <v>25</v>
+      </c>
+      <c r="E164" t="s">
+        <v>64</v>
+      </c>
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164">
+        <v>120</v>
+      </c>
+      <c r="H164" t="s">
+        <v>11</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>77</v>
+      </c>
+      <c r="B165" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" t="s">
+        <v>137</v>
+      </c>
+      <c r="D165">
+        <v>25</v>
+      </c>
+      <c r="E165" t="s">
+        <v>64</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165">
+        <v>60</v>
+      </c>
+      <c r="H165" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>77</v>
+      </c>
+      <c r="B166" t="s">
+        <v>90</v>
+      </c>
+      <c r="C166" t="s">
+        <v>137</v>
+      </c>
+      <c r="D166">
+        <v>25</v>
+      </c>
+      <c r="E166" t="s">
+        <v>64</v>
+      </c>
+      <c r="F166" t="s">
+        <v>74</v>
+      </c>
+      <c r="G166">
+        <v>120</v>
+      </c>
+      <c r="H166" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>78</v>
+      </c>
+      <c r="B167" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="D167">
+        <v>25</v>
+      </c>
+      <c r="E167" t="s">
+        <v>64</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167">
+        <v>120</v>
+      </c>
+      <c r="H167" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>78</v>
+      </c>
+      <c r="B168" t="s">
+        <v>91</v>
+      </c>
+      <c r="C168" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168">
+        <v>25</v>
+      </c>
+      <c r="E168" t="s">
+        <v>64</v>
+      </c>
+      <c r="F168" t="s">
+        <v>74</v>
+      </c>
+      <c r="G168">
+        <v>120</v>
+      </c>
+      <c r="H168" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>78</v>
+      </c>
+      <c r="B169" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" t="s">
+        <v>138</v>
+      </c>
+      <c r="D169">
+        <v>25</v>
+      </c>
+      <c r="E169" t="s">
+        <v>64</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169">
+        <v>90</v>
+      </c>
+      <c r="H169" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>79</v>
+      </c>
+      <c r="B170" t="s">
+        <v>92</v>
+      </c>
+      <c r="C170" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>25</v>
+      </c>
+      <c r="E170" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" t="s">
+        <v>66</v>
+      </c>
+      <c r="G170">
+        <v>7</v>
+      </c>
+      <c r="H170" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B171" t="s">
+        <v>92</v>
+      </c>
+      <c r="C171" t="s">
+        <v>139</v>
+      </c>
+      <c r="D171">
+        <v>25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>64</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171">
+        <v>22</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B172" t="s">
+        <v>92</v>
+      </c>
+      <c r="C172" t="s">
+        <v>139</v>
+      </c>
+      <c r="D172">
+        <v>25</v>
+      </c>
+      <c r="E172" t="s">
+        <v>64</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172">
+        <v>60</v>
+      </c>
+      <c r="H172" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B173" t="s">
+        <v>92</v>
+      </c>
+      <c r="C173" t="s">
+        <v>139</v>
+      </c>
+      <c r="D173">
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>64</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173">
+        <v>60</v>
+      </c>
+      <c r="H173" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>176</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>178</v>
       </c>

--- a/organization/stations.xlsx
+++ b/organization/stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliseev-ae\Desktop\Projects\electrocars\organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD52E4A-FC14-4661-9C98-E930859CE85A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3CEA3-3F06-41C3-AC90-6ABBE40360D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="3300" xr2:uid="{CA10382D-5BC2-4800-9EFC-AA49105DAA17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA94D561-2378-46A2-8F93-3F8E845A9C72}">
   <dimension ref="A1:T270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B223" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L270"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G277" sqref="G277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,12 +2544,27 @@
         <f t="shared" si="1"/>
         <v>30.306848</v>
       </c>
+      <c r="F34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO Stations VALUES(33, "г. Санкт-Петербург, набережная Обводного канала, 118С", 59.907238, 30.306848, , "", "", , "", 0);</v>
+        <v>INSERT INTO Stations VALUES(33, "г. Санкт-Петербург, набережная Обводного канала, 118С", 59.907238, 30.306848, NULL, "NULL", "NULL", NULL, "NULL", 0);</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -12079,8 +12094,8 @@
         <v>51.798727</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="13"/>
-        <v>107.60395</v>
+        <f>MID(C267,FIND(",",C267)+2, 10)</f>
+        <v>107.603950</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>178</v>
@@ -12102,7 +12117,7 @@
       </c>
       <c r="L267" t="str">
         <f t="shared" si="14"/>
-        <v>INSERT INTO Stations VALUES(130, "г. Улан-Удэ, ул. Бабушкина, д. 156", 51.798727, 107.60395, 12.5, "Россети Сибирь", "chademo", 60, "dc", 1);</v>
+        <v>INSERT INTO Stations VALUES(130, "г. Улан-Удэ, ул. Бабушкина, д. 156", 51.798727, 107.603950, 12.5, "Россети Сибирь", "chademo", 60, "dc", 1);</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12120,8 +12135,8 @@
         <v>51.798727</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="13"/>
-        <v>107.60395</v>
+        <f t="shared" ref="E268:E270" si="15">MID(C268,FIND(",",C268)+2, 10)</f>
+        <v>107.603950</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>178</v>
@@ -12143,7 +12158,7 @@
       </c>
       <c r="L268" t="str">
         <f t="shared" si="14"/>
-        <v>INSERT INTO Stations VALUES(130, "г. Улан-Удэ, ул. Бабушкина, д. 156", 51.798727, 107.60395, 12.5, "Россети Сибирь", "ccscombo2", 60, "dc", 1);</v>
+        <v>INSERT INTO Stations VALUES(130, "г. Улан-Удэ, ул. Бабушкина, д. 156", 51.798727, 107.603950, 12.5, "Россети Сибирь", "ccscombo2", 60, "dc", 1);</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12161,8 +12176,8 @@
         <v>52.067331</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="13"/>
-        <v>113.38533</v>
+        <f t="shared" si="15"/>
+        <v>113.385337</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>180</v>
@@ -12184,7 +12199,7 @@
       </c>
       <c r="L269" t="str">
         <f t="shared" si="14"/>
-        <v>INSERT INTO Stations VALUES(131, "г. Чита, ул. Маршала Рокоссовского, д. 3", 52.067331, 113.38533, 0, "Россети Сибирь", "chademo", 60, "dc", 1);</v>
+        <v>INSERT INTO Stations VALUES(131, "г. Чита, ул. Маршала Рокоссовского, д. 3", 52.067331, 113.385337, 0, "Россети Сибирь", "chademo", 60, "dc", 1);</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12202,8 +12217,8 @@
         <v>52.067331</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="13"/>
-        <v>113.38533</v>
+        <f t="shared" si="15"/>
+        <v>113.385337</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>180</v>
@@ -12225,7 +12240,7 @@
       </c>
       <c r="L270" t="str">
         <f t="shared" si="14"/>
-        <v>INSERT INTO Stations VALUES(131, "г. Чита, ул. Маршала Рокоссовского, д. 3", 52.067331, 113.38533, 0, "Россети Сибирь", "ccscombo2", 60, "dc", 1);</v>
+        <v>INSERT INTO Stations VALUES(131, "г. Чита, ул. Маршала Рокоссовского, д. 3", 52.067331, 113.385337, 0, "Россети Сибирь", "ccscombo2", 60, "dc", 1);</v>
       </c>
     </row>
   </sheetData>
